--- a/99.memo/project environment sheet.xlsx
+++ b/99.memo/project environment sheet.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Project Environment Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Type OF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2"/>
@@ -50,18 +51,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>heroku</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hostname</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>git hub</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Development Member</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -78,7 +71,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>site url</t>
+    <t>TYPE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heroku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heroku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Site URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PGSQL</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -143,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,85 +464,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
